--- a/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Código PI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Ejecutado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RECURSOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Hoja</t>
         </is>
       </c>
@@ -460,7 +480,21 @@
       <c r="B2" t="n">
         <v>2025</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>2024003760153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2142400000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Juegos_Pro_2025</t>
         </is>
@@ -475,7 +509,21 @@
       <c r="B3" t="n">
         <v>2025</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>2024003760117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102505</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4899099866</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Gestion_Escolar_Pro_2025</t>
         </is>
@@ -490,7 +538,21 @@
       <c r="B4" t="n">
         <v>2025</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2024003760111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>102492</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18487762963</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Convivencia_Pro_2025</t>
         </is>
@@ -505,7 +567,21 @@
       <c r="B5" t="n">
         <v>2025</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>2024003760137</v>
+      </c>
+      <c r="D5" t="n">
+        <v>102489</v>
+      </c>
+      <c r="E5" t="n">
+        <v>308000000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Educacion_Inicial_Pro_2025</t>
         </is>
@@ -520,7 +596,21 @@
       <c r="B6" t="n">
         <v>2025</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>2024003760182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102586</v>
+      </c>
+      <c r="E6" t="n">
+        <v>899545245</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Articulacion_Pro_2025</t>
         </is>
@@ -535,7 +625,21 @@
       <c r="B7" t="n">
         <v>2025</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>2024003760136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62000000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Normales_Pro_2025</t>
         </is>
@@ -550,7 +654,21 @@
       <c r="B8" t="n">
         <v>2025</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>2024003760119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>102510</v>
+      </c>
+      <c r="E8" t="n">
+        <v>406200000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>PEER_Pro_2025</t>
         </is>
@@ -565,7 +683,21 @@
       <c r="B9" t="n">
         <v>2025</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>2024003760189</v>
+      </c>
+      <c r="D9" t="n">
+        <v>102597</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46200000</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>PILEO_Pro_2025</t>
         </is>
@@ -580,7 +712,21 @@
       <c r="B10" t="n">
         <v>2025</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2024003760110</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102491</v>
+      </c>
+      <c r="E10" t="n">
+        <v>329999985</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Familia_Escuela_Pro_2025</t>
         </is>
@@ -595,7 +741,21 @@
       <c r="B11" t="n">
         <v>2025</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>2021003760242</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102592</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>SEIP_Pro_2025</t>
         </is>
@@ -610,7 +770,21 @@
       <c r="B12" t="n">
         <v>2025</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>2024003760134</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102490</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>AFRO_Pro_2025</t>
         </is>
@@ -625,7 +799,21 @@
       <c r="B13" t="n">
         <v>2025</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>202500000015296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>102632</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8104005542</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>ADULTOS_Pro_2025</t>
         </is>
@@ -640,7 +828,21 @@
       <c r="B14" t="n">
         <v>2025</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>20250000016669</v>
+      </c>
+      <c r="D14" t="n">
+        <v>102636</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>PADRINAZGO_Pro_2025</t>
         </is>
@@ -655,7 +857,21 @@
       <c r="B15" t="n">
         <v>2025</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>202500000023865</v>
+      </c>
+      <c r="D15" t="n">
+        <v>102641</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PROPIOS</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>BIBLIOTECA_Pro_2025</t>
         </is>
@@ -785,7 +1001,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1MJA8ICOu7CfbQOzAvOstFBup_NiR4es1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1MGnzpcnMpqIgrmYIEfBmzuo_aGSbEx4K?usp=drive_link</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -840,7 +1056,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1MJA8ICOu7CfbQOzAvOstFBup_NiR4es1?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -885,7 +1105,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1MV08juRecufKm9DaZNrx1gFKOh9Jw7x7?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1MRxRfMxbwkAmokQq3WPn3gSMvEFz0FSn?usp=drive_link</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -932,7 +1152,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1M_U2Ud2e23RX3F7MKXK0nd9ZYODlceKw?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1MV08juRecufKm9DaZNrx1gFKOh9Jw7x7?usp=drive_link</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -979,7 +1199,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b7UXzFiIVoloPSDcTppUcm90raRMS19o?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1M_U2Ud2e23RX3F7MKXK0nd9ZYODlceKw?usp=drive_link</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1022,7 +1242,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aOorbOGa8EAwNWSV3z8S9KKgaamv5pAb?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b7UXzFiIVoloPSDcTppUcm90raRMS19o?usp=drive_link</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1065,7 +1285,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aYOyv05QCWz__-ygVCQACz4iYL3i86Kp?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aOorbOGa8EAwNWSV3z8S9KKgaamv5pAb?usp=drive_link</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1108,7 +1328,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aWIDxh4TKIz7ZTGQFKFKRZOm8hz-5F97?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aYOyv05QCWz__-ygVCQACz4iYL3i86Kp?usp=drive_link</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1151,7 +1371,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aVf0GO_YLddZdLjYO6DVdK5dQJiNenJf?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aWIDxh4TKIz7ZTGQFKFKRZOm8hz-5F97?usp=drive_link</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1194,7 +1414,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aTsOHjcTRm-TXGD1Ut893k574M1uo4Bo?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aVf0GO_YLddZdLjYO6DVdK5dQJiNenJf?usp=drive_link</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1237,7 +1457,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aTQ7kP7LwbhZNs9XWd1wUGVotN3QrjND?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aTsOHjcTRm-TXGD1Ut893k574M1uo4Bo?usp=drive_link</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1280,7 +1500,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aQhUMKoK5jRacNSVNl7DZNK-Wo1G--vu?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aTQ7kP7LwbhZNs9XWd1wUGVotN3QrjND?usp=drive_link</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1321,7 +1541,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1aQhUMKoK5jRacNSVNl7DZNK-Wo1G--vu?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -1376,7 +1600,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1MuS6MgpPkxzllsO2XWWu5qt8JHir-vu1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Mz2bQBr3V6uNfJ3pWd8wXNqIrJfvQx9s?usp=drive_link</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1433,7 +1657,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1MsmVX5S5vsxANEEZb6ZjF-NrsdrIZhNo?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1MuS6MgpPkxzllsO2XWWu5qt8JHir-vu1?usp=drive_link</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1495,7 +1719,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bAo5T-ztUzss1PeYMngGaKujZ-OAMsPE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1MsmVX5S5vsxANEEZb6ZjF-NrsdrIZhNo?usp=drive_link</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1566,7 +1790,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b812ANcVxxRupmBQusd4KOioIysDBdgB?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bAo5T-ztUzss1PeYMngGaKujZ-OAMsPE?usp=drive_link</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1639,7 +1863,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b9IXmJb9dmMCUKJVSp9a6DTA7hfL8oWT?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b812ANcVxxRupmBQusd4KOioIysDBdgB?usp=drive_link</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1682,7 +1906,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1axOZ7nhcHlBaJPSHQRR57M3oV8uo7P4d?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b9IXmJb9dmMCUKJVSp9a6DTA7hfL8oWT?usp=drive_link</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1725,7 +1949,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b-qUGvaz3cLTC86wHgzY8i6XAh1V62hH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1axOZ7nhcHlBaJPSHQRR57M3oV8uo7P4d?usp=drive_link</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1768,7 +1992,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b4fZPz_wfpLYu2V73hcs5ADvdhkzo9hY?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b-qUGvaz3cLTC86wHgzY8i6XAh1V62hH?usp=drive_link</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1811,7 +2035,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ajrbBLwW-p9bcMomsOU4cnKDS3koBLVx?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b4fZPz_wfpLYu2V73hcs5ADvdhkzo9hY?usp=drive_link</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1854,7 +2078,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1auGV70GMBdbifycmKVG1g4afAAN9ltwv?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ajrbBLwW-p9bcMomsOU4cnKDS3koBLVx?usp=drive_link</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1897,7 +2121,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aifqqL8SK73KQJ4pXLiU2t08jNi1pttu?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1auGV70GMBdbifycmKVG1g4afAAN9ltwv?usp=drive_link</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1940,7 +2164,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1aggRTJJmyt9E_g2qnbE1gaG44umHDwQV?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aifqqL8SK73KQJ4pXLiU2t08jNi1pttu?usp=drive_link</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1983,7 +2207,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ahdJLzLcIUhbMq4NRxknBLl9tpqWqk7R?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1aggRTJJmyt9E_g2qnbE1gaG44umHDwQV?usp=drive_link</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2026,7 +2250,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1afxC6e0ciAQ5MYh3IHkCFEc3-KkoioJg?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ahdJLzLcIUhbMq4NRxknBLl9tpqWqk7R?usp=drive_link</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2069,7 +2293,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ag0DEaysp9Q9dqW7qWwIKEjOIPxJe7J3?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1afxC6e0ciAQ5MYh3IHkCFEc3-KkoioJg?usp=drive_link</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2112,7 +2336,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1agJiBx4PGmeK1lbkRLO9WqjRa2dAXCpI?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ag0DEaysp9Q9dqW7qWwIKEjOIPxJe7J3?usp=drive_link</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2155,7 +2379,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1afKdhsC-l5uK15BISLbZ2jNhcSX-30Y_?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1agJiBx4PGmeK1lbkRLO9WqjRa2dAXCpI?usp=drive_link</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2196,7 +2420,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1afKdhsC-l5uK15BISLbZ2jNhcSX-30Y_?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2251,7 +2479,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1N6MqrlGU_X0Ui4yrOLWzW6FRtEGKOTeN?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1NBEiNcPsZavrBwtw0sQSI5qPa4t7bs9q?usp=drive_link</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2308,7 +2536,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1N-plZEfQlWjKeT7BGSguWIFTV3HRPhz8?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1N6MqrlGU_X0Ui4yrOLWzW6FRtEGKOTeN?usp=drive_link</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2365,7 +2593,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1NDWKu-gOcd4O3pRJGFGIj5FurFfG7KYX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1N-plZEfQlWjKeT7BGSguWIFTV3HRPhz8?usp=drive_link</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2420,7 +2648,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1NDWKu-gOcd4O3pRJGFGIj5FurFfG7KYX?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2467,7 +2699,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1fGu3KRdX88fH9I_V6w52rOrySqUyChv_?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2514,7 +2750,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1NhudZBg_GVJXzj8zs2G1-ZmijhfXKuNn?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -2567,7 +2807,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1NqENcsmlpZOWGa5hZltP4_g_WpxFZ_t1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1NtBl3ONemLHT1tjFYnVhvWncN5Wo9Zg9?usp=drive_link</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2622,7 +2862,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1NlpnoNBpyU2rrU85l7gcBXz5JGj20EKH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1NqENcsmlpZOWGa5hZltP4_g_WpxFZ_t1?usp=drive_link</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2677,7 +2917,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Nt_TtLM66VKViVrLtAxr6QHP5hb6laPh?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1NlpnoNBpyU2rrU85l7gcBXz5JGj20EKH?usp=drive_link</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2720,7 +2960,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bB_UPK7hy9JUTCiA9G4nW6iH3l1T9Fcd?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Nt_TtLM66VKViVrLtAxr6QHP5hb6laPh?usp=drive_link</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2763,7 +3003,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bD1eld43i3UlhfPOzJ8jAOxLm0tdsoCu?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bB_UPK7hy9JUTCiA9G4nW6iH3l1T9Fcd?usp=drive_link</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2806,7 +3046,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bDTMr_-S8sDVANvuqdufIVNq_PT4tKOi?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bD1eld43i3UlhfPOzJ8jAOxLm0tdsoCu?usp=drive_link</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2849,7 +3089,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bJbMKZiS7vDpmFqP07zg-PPuB01qJwLE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bDTMr_-S8sDVANvuqdufIVNq_PT4tKOi?usp=drive_link</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2892,7 +3132,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bHtLvjj5kaqmVkqtlD68qFOgIL4EXL_3?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bJbMKZiS7vDpmFqP07zg-PPuB01qJwLE?usp=drive_link</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2935,7 +3175,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bRG6yggt8kYO5PkQ5qK7lNkbGbKW2QlQ?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bHtLvjj5kaqmVkqtlD68qFOgIL4EXL_3?usp=drive_link</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2980,7 +3220,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bPM3JO6msbd8XTkWhYd7LcNOssw6-_Mv?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bRG6yggt8kYO5PkQ5qK7lNkbGbKW2QlQ?usp=drive_link</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3023,7 +3263,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bNrtlD5uGjzNc0EiV8RZivm0WvLJvZ3X?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bPM3JO6msbd8XTkWhYd7LcNOssw6-_Mv?usp=drive_link</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3066,7 +3306,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bRuwh27hgLUvZS0LDHG4dhrptt7Gx3E5?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bNrtlD5uGjzNc0EiV8RZivm0WvLJvZ3X?usp=drive_link</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3109,7 +3349,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bRUS2DvNBNl1JK_iStQK7LZYL-xO_Nmi?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bRuwh27hgLUvZS0LDHG4dhrptt7Gx3E5?usp=drive_link</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3152,7 +3392,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bTFDYtmG23zRs3QhsUk5E1hJXQAXKAcE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bRUS2DvNBNl1JK_iStQK7LZYL-xO_Nmi?usp=drive_link</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3195,7 +3435,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bSJioHwHO6py9zR6nH5xmQrSVZ-y4GgT?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bTFDYtmG23zRs3QhsUk5E1hJXQAXKAcE?usp=drive_link</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3238,7 +3478,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bXiQ8l1p6JpecyPOtWFwOqzi4My_FrE4?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bSJioHwHO6py9zR6nH5xmQrSVZ-y4GgT?usp=drive_link</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3281,7 +3521,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bVNPANVybShHa7m-Yzrftv4sMYH-6gVY?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bXiQ8l1p6JpecyPOtWFwOqzi4My_FrE4?usp=drive_link</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3324,7 +3564,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1b_LcgSsfZ8Jn0GxTSBTyCA7HGbEXAuPB?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bVNPANVybShHa7m-Yzrftv4sMYH-6gVY?usp=drive_link</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3367,7 +3607,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bYDt7-C8aNevxg1_HmD5UUWcrzMJFldy?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1b_LcgSsfZ8Jn0GxTSBTyCA7HGbEXAuPB?usp=drive_link</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3410,7 +3650,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bduGHtUGo013n0JYiw7mshq3toPqHgPG?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bYDt7-C8aNevxg1_HmD5UUWcrzMJFldy?usp=drive_link</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3453,7 +3693,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bbznGsCP1H9qsBwl0jWV0Ps9IRCjFdL6?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bduGHtUGo013n0JYiw7mshq3toPqHgPG?usp=drive_link</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3494,7 +3734,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1bbznGsCP1H9qsBwl0jWV0Ps9IRCjFdL6?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3547,7 +3791,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bfyTEKERvttRNqtyiYIcB279jZm1Gx4y?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1O6HDMqzOLT90s1AEq8KjLOpDgBkZBvNx?usp=drive_link</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3598,7 +3842,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1bgMy5KnaslJnB96x7ide7tUrlSbdWWhY?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1bfyTEKERvttRNqtyiYIcB279jZm1Gx4y?usp=drive_link</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3653,7 +3897,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1bgMy5KnaslJnB96x7ide7tUrlSbdWWhY?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3694,7 +3942,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1OQzMTC6s4TKYYXG8XCPFF8kp4RIPg7nx?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1OQz_HsbsScg43j9Xuf65qcZRRhul_NDp?usp=drive_link</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3737,7 +3985,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1OHCKXuRg_HH6T12Q0rVzIFdCEh7vg9B9?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1OQzMTC6s4TKYYXG8XCPFF8kp4RIPg7nx?usp=drive_link</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3780,7 +4028,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1OFdnFoSTQO_37oppfRYvU-SGx35toi99?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1OHCKXuRg_HH6T12Q0rVzIFdCEh7vg9B9?usp=drive_link</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3823,7 +4071,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1OVvubGDsDYD5wL-sz5zI4juY0vadZJyH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1OFdnFoSTQO_37oppfRYvU-SGx35toi99?usp=drive_link</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3864,7 +4112,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1OVvubGDsDYD5wL-sz5zI4juY0vadZJyH?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3913,7 +4165,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Oi8hkOnw3m9GBcQenDZd4VrQTy1Rl7QE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1OlJwA96AN6fbtjoKPLJ0_KhKfvnqFJ46?usp=drive_link</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3962,7 +4214,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1Oi8hkOnw3m9GBcQenDZd4VrQTy1Rl7QE?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4003,7 +4259,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1mlLrY2OEMk1S41wUxiM1qfNcFeUHHzdl?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1gVHOn1-lTxwwm6wQtkoYfekDN9qBE-6S?usp=drive_link</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4046,7 +4302,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1wVIwigcMhbji7l8Vk1GMSOOcAuuYx8wN?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1mlLrY2OEMk1S41wUxiM1qfNcFeUHHzdl?usp=drive_link</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4089,7 +4345,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1vyQgJmh6esbN58GLaOWWDIF06Bou_V7O?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1wVIwigcMhbji7l8Vk1GMSOOcAuuYx8wN?usp=drive_link</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4132,7 +4388,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/14KIRHFWFR_4cfEN1lCm7eS_0gwL7RcWJ?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1vyQgJmh6esbN58GLaOWWDIF06Bou_V7O?usp=drive_link</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4175,7 +4431,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1xjZe4BDGYX07JVGXKaKm13ynciQsQEOH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/14KIRHFWFR_4cfEN1lCm7eS_0gwL7RcWJ?usp=drive_link</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4218,7 +4474,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ODps-7rp_mue1DaAldpP94A5Tn16PL4N?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1xjZe4BDGYX07JVGXKaKm13ynciQsQEOH?usp=drive_link</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4261,7 +4517,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ewH_Yc8JHSK3rG5xpdvXTWifcKI7R9Ri?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ODps-7rp_mue1DaAldpP94A5Tn16PL4N?usp=drive_link</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4304,7 +4560,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1gD8-B_VYVP1uQhB6AhLtwviCn_FMH79R?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ewH_Yc8JHSK3rG5xpdvXTWifcKI7R9Ri?usp=drive_link</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4347,7 +4603,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1j0IHMK-8_kN3XZCgHeERoLYpPvEoKSa1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1gD8-B_VYVP1uQhB6AhLtwviCn_FMH79R?usp=drive_link</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4390,7 +4646,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/19PyPpxpooBEE5yzRn2wT3drdwNlWBE3-?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1j0IHMK-8_kN3XZCgHeERoLYpPvEoKSa1?usp=drive_link</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4433,7 +4689,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1WKFngccm_vS6D-EWomtN51AKiKrHoP_c?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/19PyPpxpooBEE5yzRn2wT3drdwNlWBE3-?usp=drive_link</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4474,7 +4730,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1WKFngccm_vS6D-EWomtN51AKiKrHoP_c?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4515,7 +4775,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1PBIleR3LT6oEEoeoeVlWnXQWDMubtHM_?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1O-Wa046aExTANtKa3f5-0s2l4yWXyeds?usp=drive_link</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4558,7 +4818,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/16fYLNMw8BWzjBSFklnGSSDMCDlhtOfdm?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1PBIleR3LT6oEEoeoeVlWnXQWDMubtHM_?usp=drive_link</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4601,7 +4861,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1-8TBEJWgFDB-7zhaizTqlnHyePlOO3WO?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/16fYLNMw8BWzjBSFklnGSSDMCDlhtOfdm?usp=drive_link</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4642,7 +4902,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1-8TBEJWgFDB-7zhaizTqlnHyePlOO3WO?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>Sin observaciones</t>

--- a/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Info_Proyectos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Actividades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Metas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -959,7 +960,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
     </row>
@@ -5055,4 +5056,419 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hoja</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre_Proyecto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juegos_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de la actividad física y deportiva de docentes y estudiantes - juegos del sector educativo - en el   Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FINANCIAR 14.000 ESTUDIANTES, DIRECTIVOS DOCENTES, DOCENTES Y ADMINISTRATIVOS DE LAS 149 INSTITUCIONES EDUCATIVAS OFICIALES EN LOS JUEGOS SUPÉRATE INTERCOLEGIADOS Y EN LOS JUEGOS DEL MAGISTERIO, EN LOS 34 MUNICIPIOS NO CERTIFICADOS DEL VALLE DEL CAUCA, ANUALMENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gestion_Escolar_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mejoramiento de la Gestión Escolar en las Instituciones EducativasOficiales de los municipios no certificados del departamento del Valledel Cauca.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Asistir a las 149 instituciones educativas oficiales, de los municipios no certificados del valle del cauca, con procesos de innovación educativa e investigación en el funcionamiento de ambientes tecnopedagógicos de aprendizaje, anualmente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gestion_Escolar_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mejoramiento de la Gestión Escolar en las Instituciones EducativasOficiales de los municipios no certificados del departamento del Valledel Cauca.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meta de Producto 2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales  de los municipios no certificados del valle del cauca, en gestion escolar, para el mejoramientos insiticuional anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Convivencia_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de la convivencia escolar, proyectos pedagógicos trasversales y el desarrollo integral y armónico de niños, niñas y adolecentes en las instituciones educativas oficiales, de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Asitir técnicamente a 149 instituciones educativas oficiales en procesos de convivencia escolar, la cátedra de estudios afrocolombianos, derechos humanos,  derechos sexuales y reproductivos, resolución pacífica de conflictos, cpmstricción de paz, proyecto educativo vial, proyecto ambiental escolar- PREAE y uso adecuado del tiempo libre en los  34 municipios no certificados del valle del cauca, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Educacion_Inicial_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortalecimiento de las  condiciiones de calidad para la prestación del servicio educativo en el ciclo dos de la educación inicial grados prejardín, jardin y transición en las 149 instituciones educativas oficiales de etf valle del cauca </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Orientar a las 149 instituciones educativas oficiales en la implementacion del ciclo2, de la educación inicial (grado prejardín, jardín y transición) en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Articulacion_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los procesos de acceso y permanencia de estudiantes y egresados de las instituciones educativas oficiales en los programas de educación superior en el   Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Vincular a 2.000 estudiantes y bachilleres, de los 34 municipios no certificados del valle del cauca, a procesos de orientación, acceso y permanencia en la educación superior (técnicos profesionales, tecnólogos y profesionales) para la movilidad educativa, que contribuya al cierre de brechas de capital humano, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Normales_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consolidación de los procesos curriculares y académicos de las escuelas normales en el departamento del valle del cauca. </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Capacitar a 1,500 docentes de preescolar, básica y media en estrategias de mejoramiento de sus capacidades  en procesos pedagógicos, didácticos, investigativos, tecnológicos y digitales, de (145) instituciones educativas oficiales y las cuatro (4) escuelas normales superiores de los municipos no certificados del valle del cauca, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PEER_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dotar 32 ambientes de aprendizaje vinculados a las asociaciones de futuros agricultores - AFA durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PEER_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Meta de Producto 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Asesorar en 149 instituciones educativas oficiales la cultura del emprendiemitno y la educación financiera, con enfoque de desarrollo sostenible, anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PEER_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de los proyecto pedagógicos productivos, emprendimiento y asociaciones de futuros agricultores en las instituciones educativas oficiales de los municipios no certificados del valle del cauca.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Meta de Producto 3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Beneficiar a 35 instituciones educativas oficiales con proyectos pedagógicos productivos, realizando asistencia técnica con enfonque y tecnología STEAM, en los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PILEO_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Actualización de los Planes de Lectura, Escritura y Oralidad-PILEO- de las instituciones educativas oficiales de los municipios no certificados del  Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Disponer en las 149 instituciones educativas oficiales materiaels que promuevan la lectura, la escitura y la oralidad, para  desarrollar competencias comunicativas anualmente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Familia_Escuela_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Consolidación de la alianza familia- escuela para el desarrollo integral de niños, niñas y adolescentes en las 149 IEO de los municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ATENDER EN LAS 149 INSTITUCIONES EDUCATIVAS OFICIALES, LAS ESCUELAS DE PADRES, MADRES DE FAMILIA Y CUIDADORES, EN EL MARCO DE LOS LINEAMIENTOS DE LA LEY 2025 DE 2020, EN LOS MUNICIPIOS NO CERTIFICADOS DEL VALLE DEL CAUCA, ANUALMENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SEIP_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Apoyo al modelo etnoeducativo del Sistema Educativo Indígena Propio – SEIP, en las comunidades educativas indígenas de los municipios no certificados del  Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Orientar 2 modelos etnoeducativos (1 sistema educativo indígena propio y 1 modelo etnoeducativo PEC, en el marco de la normatividad afro) en las instituciones educativas oficiales de los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AFRO_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de la etnoeducación, en las comunidades Negras, Afrocolombianas, Raizales y Palenqueras – NARP - de los municipios no certificados del  Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Orientar 2 modelos etnoeducativos (1 sistema educativo indígena propio y 1 modelo etnoeducativo PEC, en el marco de la normatividad afro) en las instituciones educativas oficiales de los municipios no certificados del valle del cauca, durante el periodo de gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ADULTOS_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fortalecimiento de la educación flexible para jóvenes en extraedad y adultos en los municipios no certificados del Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MP2400901072201031: Beneficiar a 28.000 jóvenes en extra edad y adultos con la implementación de un modelo educativo flexible en las instituciones educativas oficiales de los municipios no certificados, durante el periodo de Gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PADRINAZGO_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mejoramiento del desempeño en las pruebas saber, de los estudiantes de las instituciones educativas oficiales de los municipios no certificados del   Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Vincular a 2.000 estudiantes y bachilleres, de los 34 municipios no certificados del Valle del Cauca, a procesos de orientación, acceso y permanencia en la educación superior (técnicos profesionales, tecnólogos y profesionales) para la movilidad educativa, que contribuya al cierre de brechas de capital humano, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BIBLIOTECA_Pro_2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fortalecimiento en la planificación de eventos pedagógicos y culturales de los procesos educativos en el Valle del Cauca</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Meta de Producto 1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>beneficiar a 1.800 personas a través de eventos pedagógicos, en articulación con la biblioteca departamental Jorge Garcés Borrero, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_POAI_2025.xlsx
@@ -2949,10 +2949,22 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acompañamiento Institucional</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Establecimientos Educativos</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -3834,8 +3846,16 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bono redimible de $ 3'000,000 de pesos en  insumos didactivos que escoge cada IE </t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>EVIDENCIAS</t>
